--- a/metrics/MAPE/upto time/Ictus (UPTO).xlsx
+++ b/metrics/MAPE/upto time/Ictus (UPTO).xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9695467533025.07</v>
+        <v>10093203520614.86</v>
       </c>
       <c r="C3" t="n">
-        <v>9708275255339.832</v>
+        <v>9411954510449.916</v>
       </c>
       <c r="D3" t="n">
-        <v>9456678804121.67</v>
+        <v>10200521081903.79</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9234824118158.986</v>
+        <v>9666722674412.752</v>
       </c>
       <c r="C4" t="n">
-        <v>9934054825846.936</v>
+        <v>9745690563394.553</v>
       </c>
       <c r="D4" t="n">
-        <v>9689580434669.492</v>
+        <v>9738491899410.404</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>449880679459545.5</v>
+        <v>488077958745573.9</v>
       </c>
       <c r="C5" t="n">
-        <v>477754145845621.6</v>
+        <v>494108109932159.6</v>
       </c>
       <c r="D5" t="n">
-        <v>549771487085021.1</v>
+        <v>513941983931219.9</v>
       </c>
     </row>
   </sheetData>
